--- a/public/support files/Sorting DB relational model.xlsx
+++ b/public/support files/Sorting DB relational model.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="4395" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="4395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB schema" sheetId="5" r:id="rId1"/>
     <sheet name="Operational tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Non operational tables" sheetId="4" r:id="rId3"/>
+    <sheet name="definitive table" sheetId="6" r:id="rId3"/>
+    <sheet name="Schema" sheetId="7" r:id="rId4"/>
+    <sheet name="Non operational tables" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="217">
   <si>
     <t>DSP</t>
   </si>
@@ -115,15 +117,9 @@
     <t>ZDPS</t>
   </si>
   <si>
-    <t>ZOM</t>
-  </si>
-  <si>
     <t>ZONE</t>
   </si>
   <si>
-    <t>DAMPER</t>
-  </si>
-  <si>
     <t>Column name</t>
   </si>
   <si>
@@ -202,9 +198,6 @@
     <t>Zone Damper Position Signal (%)</t>
   </si>
   <si>
-    <t>Zone Occupancy Mode (Occupied/Unoccupied)</t>
-  </si>
-  <si>
     <t>Zone Reheat Valve Signal (%)</t>
   </si>
   <si>
@@ -214,9 +207,6 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Damper</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -244,9 +234,6 @@
     <t>Trigger value</t>
   </si>
   <si>
-    <t>USELESS: A zone can have many dampers</t>
-  </si>
-  <si>
     <t>USELESS: a building contains many zones</t>
   </si>
   <si>
@@ -280,9 +267,6 @@
     <t>kWH</t>
   </si>
   <si>
-    <t>Repeated (should be removed)</t>
-  </si>
-  <si>
     <t>Outside temperature</t>
   </si>
   <si>
@@ -365,13 +349,343 @@
   </si>
   <si>
     <t>Not so important.  Can lead to confusion</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>a01OM</t>
+  </si>
+  <si>
+    <t>a02OAT</t>
+  </si>
+  <si>
+    <t>a03ZT</t>
+  </si>
+  <si>
+    <t>a04ZONE</t>
+  </si>
+  <si>
+    <t>a05ConskWH</t>
+  </si>
+  <si>
+    <t>b01ZRVS</t>
+  </si>
+  <si>
+    <t>b02DAT</t>
+  </si>
+  <si>
+    <t>b03DATSP</t>
+  </si>
+  <si>
+    <t>b04DSP</t>
+  </si>
+  <si>
+    <t>b05DSPSP</t>
+  </si>
+  <si>
+    <t>b06MAT</t>
+  </si>
+  <si>
+    <t>b07OADPS</t>
+  </si>
+  <si>
+    <t>b08OAF</t>
+  </si>
+  <si>
+    <t>b09RAT</t>
+  </si>
+  <si>
+    <t>b10SFSpd</t>
+  </si>
+  <si>
+    <t>b11SFS</t>
+  </si>
+  <si>
+    <t>b12VAVDPSP</t>
+  </si>
+  <si>
+    <t>b13ZDPS</t>
+  </si>
+  <si>
+    <t>c01HCVS</t>
+  </si>
+  <si>
+    <t>c02HWLDP</t>
+  </si>
+  <si>
+    <t>c03HWLDPSP</t>
+  </si>
+  <si>
+    <t>c04HWRT</t>
+  </si>
+  <si>
+    <t>c05HWST</t>
+  </si>
+  <si>
+    <t>c06HWSTSP</t>
+  </si>
+  <si>
+    <t>d01ChWLDP</t>
+  </si>
+  <si>
+    <t>d02ChWLDSP</t>
+  </si>
+  <si>
+    <t>d03ChWRT</t>
+  </si>
+  <si>
+    <t>d04ChWST</t>
+  </si>
+  <si>
+    <t>d05ChWSTSP</t>
+  </si>
+  <si>
+    <t>d06CCV</t>
+  </si>
+  <si>
+    <t>column name</t>
+  </si>
+  <si>
+    <t>dataset_id</t>
+  </si>
+  <si>
+    <t>datereading</t>
+  </si>
+  <si>
+    <t>timereading</t>
+  </si>
+  <si>
+    <t>date of reading</t>
+  </si>
+  <si>
+    <t>time of reading</t>
+  </si>
+  <si>
+    <t>foraing key</t>
+  </si>
+  <si>
+    <t>public function up()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Schema::create('buildingregisters', function(Blueprint $table) {</t>
+  </si>
+  <si>
+    <t>$table-&gt;increments('id');</t>
+  </si>
+  <si>
+    <t>$table-&gt;date('datereading');</t>
+  </si>
+  <si>
+    <t>$table-&gt;time('timereading');</t>
+  </si>
+  <si>
+    <t>$table-&gt;integer('dataset_id');</t>
+  </si>
+  <si>
+    <t>$table-&gt;tinyinteger('a01OM');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('a02OAT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('a03ZT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('a04ZONE');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('a05ConskWH');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b01ZRVS');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b02DAT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b03DATSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b04DSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b05DSPSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b06MAT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b07OADPS');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b08OAF');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b09RAT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;integer('b10SFSpd');</t>
+  </si>
+  <si>
+    <t>$table-&gt;tinyinteger('b11SFS');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b12VAVDPSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('b13ZDPS');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c01HCVS');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c02HWLDP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c03HWLDPSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c04HWRT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c05HWST');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('c06HWSTSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d01ChWLDP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d02ChWLDSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d03ChWRT');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d04ChWST');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d05ChWSTSP');</t>
+  </si>
+  <si>
+    <t>$table-&gt;float('d06CCV');</t>
+  </si>
+  <si>
+    <t>$table-&gt;timestamps();</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>1/0</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>tinyinteger</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>kW/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Dampers</t>
+  </si>
+  <si>
+    <t>buildingregister_id</t>
+  </si>
+  <si>
+    <t>All registers belong to one dataset</t>
+  </si>
+  <si>
+    <t>Be careful with format</t>
+  </si>
+  <si>
+    <t>Unit msm</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>decimals</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>increments</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>timestamps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +702,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -489,15 +811,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1443,16 +1767,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31"/>
   <sortState ref="A2:D33">
     <sortCondition ref="B1"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="7">
     <tableColumn id="1" name="Column name"/>
     <tableColumn id="5" name="System"/>
     <tableColumn id="3" name="Description"/>
-    <tableColumn id="6" name="Comments" dataDxfId="0"/>
+    <tableColumn id="6" name="Comments" dataDxfId="1"/>
+    <tableColumn id="2" name="C1"/>
+    <tableColumn id="4" name="C2"/>
+    <tableColumn id="7" name="c3" dataDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,459 +2094,772 @@
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>a01OM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>a02OAT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>a03ZT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>a04ZONE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G6" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>a05ConskWH</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b01ZRVS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b02DAT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b03DATSP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b04DSP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b05DSPSP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b06MAT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
+      <c r="D13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b07OADPS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b08OAF</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b09RAT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b10SFSpd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b11SFS</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b12VAVDPSP</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>b13ZDPS</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c01HCVS</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c02HWLDP</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c03HWLDPSP</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c04HWRT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c05HWST</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>c06HWSTSP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d01ChWLDP</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d02ChWLDSP</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d03ChWRT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d04ChWST</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d05ChWSTSP</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="str">
+        <f>Tabla1[[#This Row],[C1]]&amp;IF(LEN(Tabla1[[#This Row],[C2]])=1,"0","")&amp;Tabla1[[#This Row],[C2]]&amp;Tabla1[[#This Row],[Column name]]</f>
+        <v>d06CCV</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>90</v>
+      <c r="B34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2231,9 +2873,1457 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>"$table-&gt;"&amp;E2&amp;"('"&amp;A2&amp;"'"&amp;IF(F2="","",","&amp;F2)&amp;IF(G2="","",","&amp;G2)&amp;");"</f>
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H35" si="0">"$table-&gt;"&amp;E3&amp;"('"&amp;A3&amp;"'"&amp;IF(F3="","",","&amp;F3)&amp;IF(G3="","",","&amp;G3)&amp;");"</f>
+        <v>$table-&gt;date('datereading');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;time('timereading');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;integer('dataset_id');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;tinyinteger('a01OM');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('a02OAT',4,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('a03ZT',4,1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;string('a04ZONE');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('a05ConskWH',3,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b01ZRVS',3,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b02DAT',4,1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b03DATSP',4,1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b04DSP',3,1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b05DSPSP',3,1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b06MAT',4,1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b07OADPS',3,0);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b08OAF',3,0);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b09RAT',4,1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b10SFSpd',4,0);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;tinyinteger('b11SFS');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b12VAVDPSP',3,0);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('b13ZDPS',3,0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c01HCVS',3,0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c02HWLDP',3,1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c03HWLDPSP',3,1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c04HWRT',4,1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c05HWST',4,1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('c06HWSTSP',4,1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d01ChWLDP',3,1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d02ChWLDSP',3,1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d03ChWRT',4,1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d04ChWST',4,1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d05ChWSTSP',4,1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;decimal('d06CCV',3,0);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'definitive table'!H2</f>
+        <v>$table-&gt;increments('id');</v>
+      </c>
+      <c r="D4" t="b">
+        <f>C4=B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'definitive table'!H3</f>
+        <v>$table-&gt;date('datereading');</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ref="D5:D40" si="0">C5=B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="str">
+        <f>'definitive table'!H4</f>
+        <v>$table-&gt;time('timereading');</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="str">
+        <f>'definitive table'!H5</f>
+        <v>$table-&gt;integer('dataset_id');</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'definitive table'!H6</f>
+        <v>$table-&gt;tinyinteger('a01OM');</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="str">
+        <f>'definitive table'!H7</f>
+        <v>$table-&gt;decimal('a02OAT',4,1);</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="str">
+        <f>'definitive table'!H8</f>
+        <v>$table-&gt;decimal('a03ZT',4,1);</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="str">
+        <f>'definitive table'!H9</f>
+        <v>$table-&gt;string('a04ZONE');</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="str">
+        <f>'definitive table'!H10</f>
+        <v>$table-&gt;decimal('a05ConskWH',3,0);</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="str">
+        <f>'definitive table'!H11</f>
+        <v>$table-&gt;decimal('b01ZRVS',3,0);</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="str">
+        <f>'definitive table'!H12</f>
+        <v>$table-&gt;decimal('b02DAT',4,1);</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="str">
+        <f>'definitive table'!H13</f>
+        <v>$table-&gt;decimal('b03DATSP',4,1);</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="str">
+        <f>'definitive table'!H14</f>
+        <v>$table-&gt;decimal('b04DSP',3,1);</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="str">
+        <f>'definitive table'!H15</f>
+        <v>$table-&gt;decimal('b05DSPSP',3,1);</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="str">
+        <f>'definitive table'!H16</f>
+        <v>$table-&gt;decimal('b06MAT',4,1);</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="str">
+        <f>'definitive table'!H17</f>
+        <v>$table-&gt;decimal('b07OADPS',3,0);</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="str">
+        <f>'definitive table'!H18</f>
+        <v>$table-&gt;decimal('b08OAF',3,0);</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="str">
+        <f>'definitive table'!H19</f>
+        <v>$table-&gt;decimal('b09RAT',4,1);</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="str">
+        <f>'definitive table'!H20</f>
+        <v>$table-&gt;decimal('b10SFSpd',4,0);</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="str">
+        <f>'definitive table'!H21</f>
+        <v>$table-&gt;tinyinteger('b11SFS');</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="str">
+        <f>'definitive table'!H22</f>
+        <v>$table-&gt;decimal('b12VAVDPSP',3,0);</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="str">
+        <f>'definitive table'!H23</f>
+        <v>$table-&gt;decimal('b13ZDPS',3,0);</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="str">
+        <f>'definitive table'!H24</f>
+        <v>$table-&gt;decimal('c01HCVS',3,0);</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="str">
+        <f>'definitive table'!H25</f>
+        <v>$table-&gt;decimal('c02HWLDP',3,1);</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="str">
+        <f>'definitive table'!H26</f>
+        <v>$table-&gt;decimal('c03HWLDPSP',3,1);</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="str">
+        <f>'definitive table'!H27</f>
+        <v>$table-&gt;decimal('c04HWRT',4,1);</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="str">
+        <f>'definitive table'!H28</f>
+        <v>$table-&gt;decimal('c05HWST',4,1);</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="str">
+        <f>'definitive table'!H29</f>
+        <v>$table-&gt;decimal('c06HWSTSP',4,1);</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="str">
+        <f>'definitive table'!H30</f>
+        <v>$table-&gt;decimal('d01ChWLDP',3,1);</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="str">
+        <f>'definitive table'!H31</f>
+        <v>$table-&gt;decimal('d02ChWLDSP',3,1);</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="str">
+        <f>'definitive table'!H32</f>
+        <v>$table-&gt;decimal('d03ChWRT',4,1);</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="str">
+        <f>'definitive table'!H33</f>
+        <v>$table-&gt;decimal('d04ChWST',4,1);</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" t="str">
+        <f>'definitive table'!H34</f>
+        <v>$table-&gt;decimal('d05ChWSTSP',4,1);</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="str">
+        <f>'definitive table'!H35</f>
+        <v>$table-&gt;decimal('d06CCV',3,0);</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38">
+        <f>'definitive table'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="str">
+        <f>'definitive table'!H37</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40">
+        <f>'definitive table'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <f>B38=C39</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2245,111 +4335,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/public/support files/Sorting DB relational model.xlsx
+++ b/public/support files/Sorting DB relational model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="4395" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="4395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB schema" sheetId="5" r:id="rId1"/>
@@ -2875,9 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
